--- a/xlsx/钢_intext.xlsx
+++ b/xlsx/钢_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t>钢</t>
   </si>
@@ -26,16 +26,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC</t>
   </si>
   <si>
-    <t>鋼</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_钢</t>
+    <t>政策_政策_美国_钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E7%B2%92%E9%90%B5</t>
   </si>
   <si>
-    <t>肥粒鐵</t>
+    <t>肥粒铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%B0%8F%E4%BD%93</t>
@@ -53,13 +50,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E4%BE%86%E9%90%B5</t>
   </si>
   <si>
-    <t>波來鐵</t>
+    <t>波来铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%9F%8C%E9%90%B5</t>
   </si>
   <si>
-    <t>變韌鐵</t>
+    <t>变韧铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E6%BB%B4%E6%96%91%E9%93%81</t>
@@ -83,7 +80,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E9%8B%BC</t>
   </si>
   <si>
-    <t>碳鋼</t>
+    <t>碳钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3</t>
@@ -101,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%87%91%E9%8B%BC</t>
   </si>
   <si>
-    <t>合金鋼</t>
+    <t>合金钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%B0%8F%E4%BD%93%E6%97%B6%E6%95%88%E9%92%A2</t>
@@ -113,7 +110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E9%8F%BD%E9%8B%BC</t>
   </si>
   <si>
-    <t>不鏽鋼</t>
+    <t>不锈钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%90%E5%80%99%E9%92%A2</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%9B%E9%90%B5</t>
   </si>
   <si>
-    <t>鍛鐵</t>
+    <t>锻铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E7%A2%B3%E5%90%88%E9%87%91%E7%9B%B8%E5%9B%BE</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>鋼鐵等級</t>
+    <t>钢铁等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%B0</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%9F%E9%90%B5</t>
   </si>
   <si>
-    <t>熟鐵</t>
+    <t>熟铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E9%94%88</t>
@@ -269,13 +266,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%8F%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>大量生產</t>
+    <t>大量生产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%A4%A6</t>
   </si>
   <si>
-    <t>煤礦</t>
+    <t>煤矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9</t>
   </si>
   <si>
-    <t>礦物</t>
+    <t>矿物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%93%81</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E9%90%B5%E7%A4%A6</t>
   </si>
   <si>
-    <t>磁鐵礦</t>
+    <t>磁铁矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%93%81%E7%9F%BF</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E9%90%B5</t>
   </si>
   <si>
-    <t>生鐵</t>
+    <t>生铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%8D</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E7%94%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>沃斯田鐵</t>
+    <t>沃斯田铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC%E7%96%B2%E5%8B%9E</t>
   </si>
   <si>
-    <t>金屬疲勞</t>
+    <t>金属疲劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E7%89%A9</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%8B%BC</t>
   </si>
   <si>
-    <t>高速鋼</t>
+    <t>高速钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E9%87%8F%E7%99%BE%E5%88%86%E6%BF%83%E5%BA%A6</t>
   </si>
   <si>
-    <t>重量百分濃度</t>
+    <t>重量百分浓度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%96%B9%E6%99%B6%E7%B3%BB</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC%E4%BA%92%E5%8C%96%E7%89%A9</t>
   </si>
   <si>
-    <t>金屬互化物</t>
+    <t>金属互化物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%85%89%E4%BD%93</t>
@@ -467,25 +464,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E5%8A%9B</t>
   </si>
   <si>
-    <t>應力</t>
+    <t>应力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE</t>
   </si>
   <si>
-    <t>壓縮</t>
+    <t>压缩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%8A%9B</t>
   </si>
   <si>
-    <t>張力</t>
+    <t>张力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AA%E6%87%89%E5%8A%9B</t>
   </si>
   <si>
-    <t>剪應力</t>
+    <t>剪应力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%A4%84%E7%90%86</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%91%84%E9%80%A0</t>
   </si>
   <si>
-    <t>鑄造</t>
+    <t>铸造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%AD%97%E6%A2%81</t>
@@ -545,19 +542,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E8%BB%8C%E9%81%93</t>
   </si>
   <si>
-    <t>鐵路軌道</t>
+    <t>铁路轨道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E9%85%8D%E7%B7%9A</t>
   </si>
   <si>
-    <t>裝配線</t>
+    <t>装配线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -569,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%89%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>安那托利亞</t>
+    <t>安那托利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E8%B7%A1</t>
   </si>
   <si>
-    <t>遺跡</t>
+    <t>遗迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>戰國</t>
+    <t>战国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%9C%9D</t>
@@ -617,19 +614,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9%E9%8B%BC</t>
   </si>
   <si>
-    <t>大馬士革鋼</t>
+    <t>大马士革钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E9%8B%BC</t>
   </si>
   <si>
-    <t>烏茲鋼</t>
+    <t>乌兹钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E9%A3%8E</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E9%8B%92</t>
   </si>
   <si>
-    <t>刀鋒</t>
+    <t>刀锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E6%9C%89%E5%85%83%E7%B4%A0</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%90</t>
   </si>
   <si>
-    <t>高爐</t>
+    <t>高炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%82%AD</t>
@@ -749,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%9B%E9%80%A0</t>
   </si>
   <si>
-    <t>鍛造</t>
+    <t>锻造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1</t>
   </si>
   <si>
-    <t>勃蘭登堡</t>
+    <t>勃兰登堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%B4%9D%E5%A1%9E%E9%BA%A6</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E5%9F%BA</t>
   </si>
   <si>
-    <t>鹽基</t>
+    <t>盐基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%82%89</t>
@@ -785,25 +782,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BC%A7%E7%88%90</t>
   </si>
   <si>
-    <t>電弧爐</t>
+    <t>电弧炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%93%A6%C2%B7%E6%99%82</t>
   </si>
   <si>
-    <t>千瓦·時</t>
+    <t>千瓦·时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8B%BC%E9%90%B5%E5%B7%A5%E6%A5%AD%E8%B6%A8%E5%8B%A2</t>
   </si>
   <si>
-    <t>世界鋼鐵工業趨勢</t>
+    <t>世界钢铁工业趋势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD</t>
@@ -815,25 +812,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>經濟發展</t>
+    <t>经济发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E9%8B%BC%E9%90%B5</t>
   </si>
   <si>
-    <t>塔塔鋼鐵</t>
+    <t>塔塔钢铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E9%8B%BC%E9%90%B5%E6%AD%90%E6%B4%B2%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>塔塔鋼鐵歐洲股份</t>
+    <t>塔塔钢铁欧洲股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%AE%9D%E9%92%A2%E9%9B%86%E5%9B%A2</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%B3%BD%E6%A8%82%E7%B1%B3%E5%A1%94%E7%88%BE</t>
   </si>
   <si>
-    <t>安賽樂米塔爾</t>
+    <t>安赛乐米塔尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E9%87%91%E5%B1%9E%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E6%81%92_(%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E6%81%86%E9%8B%BC%E9%90%B5</t>
   </si>
   <si>
-    <t>伯利恆鋼鐵</t>
+    <t>伯利恒钢铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%BC</t>
@@ -905,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8C%96%E4%BD%9C%E7%94%A8</t>
   </si>
   <si>
-    <t>風化作用</t>
+    <t>风化作用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>相變</t>
+    <t>相变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%85%8B</t>
@@ -923,19 +920,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A5%E5%B8%B6</t>
   </si>
   <si>
-    <t>履帶</t>
+    <t>履带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%9C%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>推土機</t>
+    <t>推土机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%90%E6%96%99%E5%92%8C%E8%A9%A6%E9%A9%97%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國材料和試驗協會</t>
+    <t>美国材料和试验协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%8C</t>
@@ -953,25 +950,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>體育場</t>
+    <t>体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>摩天大樓</t>
+    <t>摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B</t>
   </si>
   <si>
-    <t>橋</t>
+    <t>桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>機場</t>
+    <t>机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%87%9D%E5%9C%9F</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E7%B5%B2</t>
   </si>
   <si>
-    <t>螺絲</t>
+    <t>螺丝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E8%88%B9</t>
@@ -1043,19 +1040,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2%E5%AE%B6%E9%9B%BB</t>
   </si>
   <si>
-    <t>白色家電</t>
+    <t>白色家电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E8%A1%A3%E6%A9%9F</t>
   </si>
   <si>
-    <t>洗衣機</t>
+    <t>洗衣机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E4%BD%9C%E6%A5%AD%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>工程作業車輛</t>
+    <t>工程作业车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8B%E5%A3%93%E5%9D%87%E8%B3%AA%E8%A3%9D%E7%94%B2</t>
   </si>
   <si>
-    <t>軋壓均質裝甲</t>
+    <t>轧压均质装甲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E5%A1%91</t>
@@ -1109,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%90%98</t>
   </si>
   <si>
-    <t>時鐘</t>
+    <t>时钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E6%96%99</t>
@@ -1127,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E7%AD%8B</t>
   </si>
   <si>
-    <t>鋼筋</t>
+    <t>钢筋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>鐵路列車</t>
+    <t>铁路列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AC%E6%96%99%E8%88%B9</t>
   </si>
   <si>
-    <t>醬料船</t>
+    <t>酱料船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E5%85%B7</t>
@@ -1199,15 +1196,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E9%93%81</t>
   </si>
   <si>
-    <t>生铁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A2%B3%E9%92%A2</t>
   </si>
   <si>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%89%E9%8B%BC%E5%BB%A0</t>
   </si>
   <si>
-    <t>煉鋼廠</t>
+    <t>炼钢厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%88%80</t>
@@ -1241,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8F%A3%E9%90%B5</t>
   </si>
   <si>
-    <t>馬口鐵</t>
+    <t>马口铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1259,13 +1250,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1677,13 +1668,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -1703,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -1732,16 +1723,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1761,16 +1752,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1790,16 +1781,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1819,16 +1810,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -1848,16 +1839,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1877,16 +1868,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1906,16 +1897,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1935,16 +1926,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1964,16 +1955,16 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1993,16 +1984,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -2022,16 +2013,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -2051,16 +2042,16 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -2080,16 +2071,16 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -2109,16 +2100,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -2138,16 +2129,16 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -2167,16 +2158,16 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -2196,16 +2187,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -2225,16 +2216,16 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -2254,16 +2245,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -2283,16 +2274,16 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -2312,16 +2303,16 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -2341,16 +2332,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -2370,16 +2361,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" t="n">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2399,16 +2390,16 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2428,16 +2419,16 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -2457,16 +2448,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -2486,16 +2477,16 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2515,16 +2506,16 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2544,16 +2535,16 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2573,16 +2564,16 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2602,16 +2593,16 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="n">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2631,16 +2622,16 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
       <c r="G35" t="n">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -2660,16 +2651,16 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -2689,16 +2680,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -2718,16 +2709,16 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -2747,16 +2738,16 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -2776,16 +2767,16 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
       </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -2805,16 +2796,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -2834,16 +2825,16 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -2863,16 +2854,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
       </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -2892,16 +2883,16 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
       </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -2921,16 +2912,16 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
       </c>
-      <c r="F45" t="s">
-        <v>90</v>
-      </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -2950,16 +2941,16 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -2979,16 +2970,16 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
       </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3008,16 +2999,16 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
       </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3037,16 +3028,16 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
       </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -3066,16 +3057,16 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -3095,16 +3086,16 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
       </c>
-      <c r="F51" t="s">
-        <v>102</v>
-      </c>
       <c r="G51" t="n">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -3124,16 +3115,16 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
       </c>
-      <c r="F52" t="s">
-        <v>104</v>
-      </c>
       <c r="G52" t="n">
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -3153,16 +3144,16 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
       </c>
-      <c r="F53" t="s">
-        <v>106</v>
-      </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -3182,16 +3173,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -3211,16 +3202,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -3240,16 +3231,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -3269,16 +3260,16 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
       </c>
-      <c r="F57" t="s">
-        <v>114</v>
-      </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -3298,16 +3289,16 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
       </c>
-      <c r="F58" t="s">
-        <v>116</v>
-      </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -3327,16 +3318,16 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -3356,16 +3347,16 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
         <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>10</v>
       </c>
       <c r="G60" t="n">
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -3385,16 +3376,16 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -3414,16 +3405,16 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -3443,16 +3434,16 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="s">
-        <v>124</v>
-      </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3472,16 +3463,16 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="s">
-        <v>126</v>
-      </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>3</v>
@@ -3501,16 +3492,16 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -3530,16 +3521,16 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -3559,16 +3550,16 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="s">
-        <v>132</v>
-      </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -3588,16 +3579,16 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
         <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>6</v>
       </c>
       <c r="G68" t="n">
         <v>9</v>
       </c>
       <c r="H68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -3617,16 +3608,16 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
       </c>
-      <c r="F69" t="s">
-        <v>134</v>
-      </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>3</v>
@@ -3646,16 +3637,16 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
       </c>
-      <c r="F70" t="s">
-        <v>136</v>
-      </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -3675,16 +3666,16 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
       </c>
-      <c r="F71" t="s">
-        <v>138</v>
-      </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -3704,16 +3695,16 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
       </c>
-      <c r="F72" t="s">
-        <v>140</v>
-      </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -3733,16 +3724,16 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
       </c>
-      <c r="F73" t="s">
-        <v>142</v>
-      </c>
       <c r="G73" t="n">
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -3762,16 +3753,16 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
       </c>
-      <c r="F74" t="s">
-        <v>144</v>
-      </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -3791,16 +3782,16 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
       </c>
-      <c r="F75" t="s">
-        <v>146</v>
-      </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -3820,16 +3811,16 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
       </c>
-      <c r="F76" t="s">
-        <v>148</v>
-      </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -3849,16 +3840,16 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -3878,16 +3869,16 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
       </c>
-      <c r="F78" t="s">
-        <v>152</v>
-      </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -3907,16 +3898,16 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
       </c>
-      <c r="F79" t="s">
-        <v>154</v>
-      </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -3936,16 +3927,16 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
       </c>
-      <c r="F80" t="s">
-        <v>156</v>
-      </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -3965,16 +3956,16 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -3994,16 +3985,16 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -4023,16 +4014,16 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -4052,16 +4043,16 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
       </c>
-      <c r="F84" t="s">
-        <v>164</v>
-      </c>
       <c r="G84" t="n">
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -4081,16 +4072,16 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
       </c>
-      <c r="F85" t="s">
-        <v>166</v>
-      </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -4110,16 +4101,16 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>34</v>
       </c>
       <c r="H86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -4139,16 +4130,16 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -4168,16 +4159,16 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
       </c>
-      <c r="F88" t="s">
-        <v>172</v>
-      </c>
       <c r="G88" t="n">
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -4197,16 +4188,16 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
       </c>
-      <c r="F89" t="s">
-        <v>174</v>
-      </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -4226,16 +4217,16 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -4255,16 +4246,16 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
       </c>
-      <c r="F91" t="s">
-        <v>178</v>
-      </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -4284,16 +4275,16 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
       </c>
-      <c r="F92" t="s">
-        <v>180</v>
-      </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -4313,16 +4304,16 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
       </c>
-      <c r="F93" t="s">
-        <v>182</v>
-      </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -4342,16 +4333,16 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
       </c>
-      <c r="F94" t="s">
-        <v>184</v>
-      </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -4371,16 +4362,16 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
       </c>
-      <c r="F95" t="s">
-        <v>186</v>
-      </c>
       <c r="G95" t="n">
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -4400,16 +4391,16 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -4429,16 +4420,16 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
       </c>
-      <c r="F97" t="s">
-        <v>190</v>
-      </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -4458,16 +4449,16 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
       </c>
-      <c r="F98" t="s">
-        <v>192</v>
-      </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -4487,16 +4478,16 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
       </c>
-      <c r="F99" t="s">
-        <v>194</v>
-      </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -4516,16 +4507,16 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
       </c>
-      <c r="F100" t="s">
-        <v>196</v>
-      </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -4545,16 +4536,16 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
       </c>
-      <c r="F101" t="s">
-        <v>198</v>
-      </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -4574,16 +4565,16 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -4603,16 +4594,16 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
       </c>
-      <c r="F103" t="s">
-        <v>202</v>
-      </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -4632,16 +4623,16 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -4661,16 +4652,16 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -4690,16 +4681,16 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -4719,16 +4710,16 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
       </c>
-      <c r="F107" t="s">
-        <v>210</v>
-      </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -4748,16 +4739,16 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -4777,16 +4768,16 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
       </c>
-      <c r="F109" t="s">
-        <v>214</v>
-      </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -4806,16 +4797,16 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
       </c>
-      <c r="F110" t="s">
-        <v>216</v>
-      </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -4835,16 +4826,16 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
       </c>
-      <c r="F111" t="s">
-        <v>218</v>
-      </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -4864,16 +4855,16 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -4893,16 +4884,16 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
       </c>
-      <c r="F113" t="s">
-        <v>222</v>
-      </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -4922,16 +4913,16 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
       </c>
-      <c r="F114" t="s">
-        <v>224</v>
-      </c>
       <c r="G114" t="n">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -4951,16 +4942,16 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -4980,16 +4971,16 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
       </c>
-      <c r="F116" t="s">
-        <v>228</v>
-      </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -5009,16 +5000,16 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
       </c>
       <c r="H117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -5038,16 +5029,16 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
       </c>
-      <c r="F118" t="s">
-        <v>232</v>
-      </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -5067,16 +5058,16 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
       </c>
-      <c r="F119" t="s">
-        <v>234</v>
-      </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -5096,16 +5087,16 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
       </c>
-      <c r="F120" t="s">
-        <v>236</v>
-      </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -5125,16 +5116,16 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
       </c>
-      <c r="F121" t="s">
-        <v>238</v>
-      </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -5154,16 +5145,16 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
       </c>
-      <c r="F122" t="s">
-        <v>240</v>
-      </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
         <v>3</v>
@@ -5183,16 +5174,16 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
       </c>
-      <c r="F123" t="s">
-        <v>242</v>
-      </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -5212,16 +5203,16 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
       </c>
       <c r="H124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -5241,16 +5232,16 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
       </c>
-      <c r="F125" t="s">
-        <v>246</v>
-      </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -5270,16 +5261,16 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
       </c>
-      <c r="F126" t="s">
-        <v>248</v>
-      </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -5299,16 +5290,16 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
       </c>
-      <c r="F127" t="s">
-        <v>250</v>
-      </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -5328,16 +5319,16 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
       </c>
-      <c r="F128" t="s">
-        <v>252</v>
-      </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -5357,16 +5348,16 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
       </c>
-      <c r="F129" t="s">
-        <v>254</v>
-      </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -5386,16 +5377,16 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -5415,16 +5406,16 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
       </c>
-      <c r="F131" t="s">
-        <v>258</v>
-      </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -5444,16 +5435,16 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -5473,16 +5464,16 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
       </c>
-      <c r="F133" t="s">
-        <v>262</v>
-      </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -5502,16 +5493,16 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
       </c>
-      <c r="F134" t="s">
-        <v>264</v>
-      </c>
       <c r="G134" t="n">
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -5531,16 +5522,16 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
       </c>
-      <c r="F135" t="s">
-        <v>266</v>
-      </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -5560,16 +5551,16 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>8</v>
       </c>
       <c r="H136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -5589,16 +5580,16 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
       </c>
-      <c r="F137" t="s">
-        <v>270</v>
-      </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -5618,16 +5609,16 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
       </c>
-      <c r="F138" t="s">
-        <v>272</v>
-      </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -5647,16 +5638,16 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
       </c>
-      <c r="F139" t="s">
-        <v>274</v>
-      </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -5676,16 +5667,16 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
       </c>
-      <c r="F140" t="s">
-        <v>276</v>
-      </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -5705,16 +5696,16 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
       </c>
-      <c r="F141" t="s">
-        <v>278</v>
-      </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -5734,16 +5725,16 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
       </c>
-      <c r="F142" t="s">
-        <v>280</v>
-      </c>
       <c r="G142" t="n">
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -5763,16 +5754,16 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
       </c>
-      <c r="F143" t="s">
-        <v>282</v>
-      </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -5792,16 +5783,16 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
       </c>
-      <c r="F144" t="s">
-        <v>284</v>
-      </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -5821,16 +5812,16 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
       </c>
-      <c r="F145" t="s">
-        <v>286</v>
-      </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -5850,16 +5841,16 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" t="s">
         <v>51</v>
       </c>
-      <c r="F146" t="s">
-        <v>52</v>
-      </c>
       <c r="G146" t="n">
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -5879,16 +5870,16 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
       </c>
-      <c r="F147" t="s">
-        <v>288</v>
-      </c>
       <c r="G147" t="n">
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -5908,16 +5899,16 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -5937,16 +5928,16 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
       </c>
-      <c r="F149" t="s">
-        <v>292</v>
-      </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -5966,16 +5957,16 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
       </c>
-      <c r="F150" t="s">
-        <v>294</v>
-      </c>
       <c r="G150" t="n">
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -5995,16 +5986,16 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" t="s">
         <v>33</v>
       </c>
-      <c r="F151" t="s">
-        <v>34</v>
-      </c>
       <c r="G151" t="n">
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -6024,16 +6015,16 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
       </c>
-      <c r="F152" t="s">
-        <v>296</v>
-      </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -6053,16 +6044,16 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -6082,16 +6073,16 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" t="s">
         <v>29</v>
       </c>
-      <c r="F154" t="s">
-        <v>30</v>
-      </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -6111,16 +6102,16 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
       </c>
-      <c r="F155" t="s">
-        <v>300</v>
-      </c>
       <c r="G155" t="n">
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -6140,16 +6131,16 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
       </c>
-      <c r="F156" t="s">
-        <v>302</v>
-      </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -6169,16 +6160,16 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -6198,16 +6189,16 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
       </c>
-      <c r="F158" t="s">
-        <v>306</v>
-      </c>
       <c r="G158" t="n">
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -6227,16 +6218,16 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
       </c>
-      <c r="F159" t="s">
-        <v>308</v>
-      </c>
       <c r="G159" t="n">
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -6256,16 +6247,16 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
       </c>
-      <c r="F160" t="s">
-        <v>310</v>
-      </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -6285,16 +6276,16 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
       </c>
-      <c r="F161" t="s">
-        <v>312</v>
-      </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -6314,16 +6305,16 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
       </c>
-      <c r="F162" t="s">
-        <v>314</v>
-      </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -6343,16 +6334,16 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -6372,16 +6363,16 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
       </c>
-      <c r="F164" t="s">
-        <v>318</v>
-      </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -6401,16 +6392,16 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -6430,16 +6421,16 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -6459,16 +6450,16 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -6488,16 +6479,16 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
       </c>
-      <c r="F168" t="s">
-        <v>326</v>
-      </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -6517,16 +6508,16 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
       </c>
       <c r="H169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -6546,16 +6537,16 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
       </c>
-      <c r="F170" t="s">
-        <v>330</v>
-      </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170" t="n">
         <v>3</v>
@@ -6575,16 +6566,16 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
       </c>
-      <c r="F171" t="s">
-        <v>332</v>
-      </c>
       <c r="G171" t="n">
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -6604,16 +6595,16 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
       </c>
-      <c r="F172" t="s">
-        <v>334</v>
-      </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -6633,16 +6624,16 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
       </c>
-      <c r="F173" t="s">
-        <v>336</v>
-      </c>
       <c r="G173" t="n">
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -6662,16 +6653,16 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
       </c>
-      <c r="F174" t="s">
-        <v>338</v>
-      </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -6691,16 +6682,16 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
       </c>
-      <c r="F175" t="s">
-        <v>340</v>
-      </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -6720,16 +6711,16 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
       </c>
-      <c r="F176" t="s">
-        <v>342</v>
-      </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -6749,16 +6740,16 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
       </c>
-      <c r="F177" t="s">
-        <v>344</v>
-      </c>
       <c r="G177" t="n">
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -6778,16 +6769,16 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
       </c>
-      <c r="F178" t="s">
-        <v>346</v>
-      </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -6807,16 +6798,16 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>9</v>
       </c>
       <c r="H179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -6836,16 +6827,16 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -6865,16 +6856,16 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
       </c>
-      <c r="F181" t="s">
-        <v>352</v>
-      </c>
       <c r="G181" t="n">
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -6894,16 +6885,16 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" t="s">
         <v>353</v>
-      </c>
-      <c r="F182" t="s">
-        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
       </c>
       <c r="H182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -6923,16 +6914,16 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" t="s">
         <v>355</v>
       </c>
-      <c r="F183" t="s">
-        <v>356</v>
-      </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -6952,16 +6943,16 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>356</v>
+      </c>
+      <c r="F184" t="s">
         <v>357</v>
       </c>
-      <c r="F184" t="s">
-        <v>358</v>
-      </c>
       <c r="G184" t="n">
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -6981,16 +6972,16 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" t="s">
         <v>359</v>
-      </c>
-      <c r="F185" t="s">
-        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>10</v>
       </c>
       <c r="H185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -7010,16 +7001,16 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
         <v>361</v>
       </c>
-      <c r="F186" t="s">
-        <v>362</v>
-      </c>
       <c r="G186" t="n">
         <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -7039,16 +7030,16 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
         <v>363</v>
       </c>
-      <c r="F187" t="s">
-        <v>364</v>
-      </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -7068,16 +7059,16 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
         <v>365</v>
-      </c>
-      <c r="F188" t="s">
-        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -7097,16 +7088,16 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>366</v>
+      </c>
+      <c r="F189" t="s">
         <v>367</v>
       </c>
-      <c r="F189" t="s">
-        <v>368</v>
-      </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -7126,16 +7117,16 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>368</v>
+      </c>
+      <c r="F190" t="s">
         <v>369</v>
       </c>
-      <c r="F190" t="s">
-        <v>370</v>
-      </c>
       <c r="G190" t="n">
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -7155,16 +7146,16 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>326</v>
+      </c>
+      <c r="F191" t="s">
         <v>327</v>
       </c>
-      <c r="F191" t="s">
-        <v>328</v>
-      </c>
       <c r="G191" t="n">
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -7184,16 +7175,16 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
         <v>371</v>
       </c>
-      <c r="F192" t="s">
-        <v>372</v>
-      </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -7213,16 +7204,16 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
         <v>373</v>
-      </c>
-      <c r="F193" t="s">
-        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -7242,16 +7233,16 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>375</v>
       </c>
-      <c r="F194" t="s">
-        <v>376</v>
-      </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -7271,16 +7262,16 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>376</v>
+      </c>
+      <c r="F195" t="s">
         <v>377</v>
       </c>
-      <c r="F195" t="s">
-        <v>378</v>
-      </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -7300,16 +7291,16 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>378</v>
+      </c>
+      <c r="F196" t="s">
         <v>379</v>
       </c>
-      <c r="F196" t="s">
-        <v>380</v>
-      </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -7329,16 +7320,16 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>380</v>
+      </c>
+      <c r="F197" t="s">
         <v>381</v>
       </c>
-      <c r="F197" t="s">
-        <v>382</v>
-      </c>
       <c r="G197" t="n">
         <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -7358,16 +7349,16 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>382</v>
+      </c>
+      <c r="F198" t="s">
         <v>383</v>
       </c>
-      <c r="F198" t="s">
-        <v>384</v>
-      </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -7387,16 +7378,16 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>384</v>
+      </c>
+      <c r="F199" t="s">
         <v>385</v>
       </c>
-      <c r="F199" t="s">
-        <v>386</v>
-      </c>
       <c r="G199" t="n">
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -7416,16 +7407,16 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>386</v>
+      </c>
+      <c r="F200" t="s">
         <v>387</v>
       </c>
-      <c r="F200" t="s">
-        <v>388</v>
-      </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -7445,16 +7436,16 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
         <v>389</v>
       </c>
-      <c r="F201" t="s">
-        <v>390</v>
-      </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -7474,16 +7465,16 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
         <v>391</v>
       </c>
-      <c r="F202" t="s">
-        <v>392</v>
-      </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -7503,16 +7494,16 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -7532,16 +7523,16 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>107</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -7561,16 +7552,16 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>74</v>
+      </c>
+      <c r="F205" t="s">
         <v>75</v>
       </c>
-      <c r="F205" t="s">
-        <v>76</v>
-      </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -7590,16 +7581,16 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" t="s">
         <v>35</v>
-      </c>
-      <c r="F206" t="s">
-        <v>36</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -7619,16 +7610,16 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
       </c>
       <c r="H207" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -7648,16 +7639,16 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -7677,16 +7668,16 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -7706,16 +7697,16 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -7735,16 +7726,16 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -7764,16 +7755,16 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -7793,16 +7784,16 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -7822,16 +7813,16 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -7851,16 +7842,16 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -7880,16 +7871,16 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
       </c>
       <c r="H216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -7909,16 +7900,16 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -7938,16 +7929,16 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
